--- a/public/format_imports/format_import_bom.xlsx
+++ b/public/format_imports/format_import_bom.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\porselain\public\format_imports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1FA13295-5E79-48E5-B0E9-95B2FA69E220}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{542870E8-5533-4521-B319-1D8E5C1DCCB9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="740" windowWidth="19180" windowHeight="10060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="header" sheetId="1" r:id="rId1"/>
@@ -29,10 +29,38 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Yustinus Windy</author>
+  </authors>
+  <commentList>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{092B5A26-7F26-4574-BDCC-1CD1D54D1AFE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>1 untuk Powder, 2 untuk Green Tile, 3 untuk Finished Goods</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -98,9 +126,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>powder</t>
-  </si>
-  <si>
     <t>qty</t>
   </si>
   <si>
@@ -157,12 +182,15 @@
   <si>
     <t>107.06.0137#TIANG RAMBU TITIK KUMPUL ASSEMBLY POINT</t>
   </si>
+  <si>
+    <t>group</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -173,6 +201,13 @@
       <sz val="8"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="9">
@@ -461,24 +496,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="12.6328125" style="1"/>
+    <col min="1" max="2" width="12.54296875" style="1"/>
     <col min="3" max="3" width="70.54296875" style="1" customWidth="1"/>
     <col min="4" max="4" width="62.7265625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6328125" style="1"/>
+    <col min="5" max="5" width="12.54296875" style="1"/>
     <col min="6" max="6" width="38.1796875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="12.6328125" style="1"/>
+    <col min="7" max="16384" width="12.54296875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -504,7 +539,7 @@
         <v>17</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -515,19 +550,19 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="E2" s="1">
         <v>4</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="H2" s="1">
         <v>1</v>
@@ -535,14 +570,15 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6A681F2C-607A-4CD7-AABB-FDAD2612BF4E}">
           <x14:formula1>
             <xm:f>items!$C:$C</xm:f>
           </x14:formula1>
-          <xm:sqref>C2</xm:sqref>
+          <xm:sqref>C2:D2</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C1A66550-8D3C-4346-9D7D-930F53FAB2A6}">
           <x14:formula1>
@@ -555,12 +591,6 @@
             <xm:f>warehouse!$C:$C</xm:f>
           </x14:formula1>
           <xm:sqref>F2</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2E81EC4C-B466-40D5-8A41-4BDFEA9A7567}">
-          <x14:formula1>
-            <xm:f>items!$C:$C</xm:f>
-          </x14:formula1>
-          <xm:sqref>D2</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -604,12 +634,12 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6328125" style="1"/>
-    <col min="3" max="3" width="13.36328125" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="12.6328125" style="1"/>
+    <col min="2" max="2" width="12.54296875" style="1"/>
+    <col min="3" max="3" width="13.453125" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="12.54296875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -667,15 +697,15 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="3" max="3" width="15.08984375" customWidth="1"/>
-    <col min="4" max="4" width="90.6328125" customWidth="1"/>
-    <col min="5" max="5" width="80.90625" customWidth="1"/>
+    <col min="3" max="3" width="15.1796875" customWidth="1"/>
+    <col min="4" max="4" width="90.54296875" customWidth="1"/>
+    <col min="5" max="5" width="80.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -689,28 +719,28 @@
         <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -724,7 +754,7 @@
         <v>11</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="1">
@@ -738,7 +768,7 @@
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K2" s="8"/>
     </row>
@@ -753,7 +783,7 @@
         <v>11</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="1">
@@ -767,7 +797,7 @@
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K3" s="8"/>
     </row>
@@ -783,7 +813,7 @@
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F4" s="1">
         <v>3</v>
@@ -796,7 +826,7 @@
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K4" s="8"/>
     </row>
@@ -811,7 +841,7 @@
         <v>11</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="1">
@@ -825,7 +855,7 @@
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K5" s="8"/>
     </row>
@@ -834,18 +864,12 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9E5E26CF-1C96-422B-9D60-AC710E174EB3}">
           <x14:formula1>
             <xm:f>items!$C:$C</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E5</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DE052102-4A89-428C-AB7E-51C7EFDA6632}">
-          <x14:formula1>
-            <xm:f>items!$C:$C</xm:f>
-          </x14:formula1>
-          <xm:sqref>D2:D5</xm:sqref>
+          <xm:sqref>D2:E5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F0281D0E-34F0-4292-8CA7-CC7A6173B5DB}">
           <x14:formula1>
@@ -40857,7 +40881,7 @@
         <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -41023,12 +41047,12 @@
   <sheetData>
     <row r="2" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
